--- a/SuppXLS/Scen_DemProj_INDHTH.xlsx
+++ b/SuppXLS/Scen_DemProj_INDHTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9B68EB-12CB-43C7-A391-9799EFDBFC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40722B-651E-40C5-BE00-6CCEF34E0662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -60,9 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Cset_CN</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>MANELC</t>
+  </si>
+  <si>
+    <t>Year2</t>
   </si>
 </sst>
 </file>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -873,39 +873,39 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>2022</v>
@@ -914,7 +914,7 @@
         <v>10281.3477669522</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,54 +945,54 @@
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2"/>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1002,7 +1002,7 @@
         <v>20811.797787542779</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="9">
         <v>0.26498832137448636</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>2030</v>
@@ -1023,13 +1023,13 @@
         <v>67412.770774944656</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>2035</v>
@@ -1039,13 +1039,13 @@
         <v>218360.84080518034</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>2040</v>
@@ -1055,13 +1055,13 @@
         <v>707305.9933455087</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>2045</v>
@@ -1071,12 +1071,12 @@
         <v>2291078.2280272678</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>2050</v>
@@ -1086,7 +1086,7 @@
         <v>7421172.019358933</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">

--- a/SuppXLS/Scen_DemProj_INDHTH.xlsx
+++ b/SuppXLS/Scen_DemProj_INDHTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40722B-651E-40C5-BE00-6CCEF34E0662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C0A03-F37F-414B-AFAF-6B8D4739A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Year2</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -928,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_DemProj_INDHTH.xlsx
+++ b/SuppXLS/Scen_DemProj_INDHTH.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C0A03-F37F-414B-AFAF-6B8D4739A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F961E-02C0-41B2-AA27-761B929FFBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
-    <sheet name="IND_Dem" sheetId="2" r:id="rId2"/>
+    <sheet name="BY_MANHEAT" sheetId="6" r:id="rId1"/>
+    <sheet name="IND_MANHEAT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -853,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
         <v>2025</v>
       </c>
       <c r="F4" s="11">
-        <f>BY_Data!$H$4*(1+$J$4)^(E4-2022)</f>
+        <f>BY_MANHEAT!$H$4*(1+$J$4)^(E4-2022)</f>
         <v>20811.797787542779</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1022,7 +1022,7 @@
         <v>2030</v>
       </c>
       <c r="F5" s="11">
-        <f>BY_Data!$H$4*(1+$J$4)^(E5-2022)</f>
+        <f>BY_MANHEAT!$H$4*(1+$J$4)^(E5-2022)</f>
         <v>67412.770774944656</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1038,7 +1038,7 @@
         <v>2035</v>
       </c>
       <c r="F6" s="11">
-        <f>BY_Data!$H$4*(1+$J$4)^(E6-2022)</f>
+        <f>BY_MANHEAT!$H$4*(1+$J$4)^(E6-2022)</f>
         <v>218360.84080518034</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1054,7 +1054,7 @@
         <v>2040</v>
       </c>
       <c r="F7" s="11">
-        <f>BY_Data!$H$4*(1+$J$4)^(E7-2022)</f>
+        <f>BY_MANHEAT!$H$4*(1+$J$4)^(E7-2022)</f>
         <v>707305.9933455087</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1070,7 +1070,7 @@
         <v>2045</v>
       </c>
       <c r="F8" s="11">
-        <f>BY_Data!$H$4*(1+$J$4)^(E8-2022)</f>
+        <f>BY_MANHEAT!$H$4*(1+$J$4)^(E8-2022)</f>
         <v>2291078.2280272678</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1085,7 +1085,7 @@
         <v>2050</v>
       </c>
       <c r="F9" s="11">
-        <f>BY_Data!$H$4*(1+$J$4)^(E9-2022)</f>
+        <f>BY_MANHEAT!$H$4*(1+$J$4)^(E9-2022)</f>
         <v>7421172.019358933</v>
       </c>
       <c r="G9" s="6" t="s">

--- a/SuppXLS/Scen_DemProj_INDHTH.xlsx
+++ b/SuppXLS/Scen_DemProj_INDHTH.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F961E-02C0-41B2-AA27-761B929FFBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B471A3E6-7314-41F8-A5AD-1893679955A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_MANHEAT" sheetId="6" r:id="rId1"/>
     <sheet name="IND_MANHEAT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Demand Driver (annual growth)</t>
-  </si>
-  <si>
-    <t>~TFM_FILL</t>
   </si>
   <si>
     <t>Operation_Sum_Avg_Count</t>
@@ -157,6 +154,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -853,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,9 +862,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -876,10 +872,10 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -891,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
@@ -902,10 +898,10 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -917,7 +913,7 @@
         <v>10281.3477669522</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
@@ -961,10 +957,10 @@
       </c>
       <c r="G2" s="2"/>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -978,19 +974,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1005,7 +1001,7 @@
         <v>20811.797787542779</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="9">
         <v>0.26498832137448636</v>
@@ -1026,7 +1022,7 @@
         <v>67412.770774944656</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -1042,7 +1038,7 @@
         <v>218360.84080518034</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -1058,7 +1054,7 @@
         <v>707305.9933455087</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -1074,7 +1070,7 @@
         <v>2291078.2280272678</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1089,7 +1085,7 @@
         <v>7421172.019358933</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">

--- a/SuppXLS/Scen_DemProj_INDHTH.xlsx
+++ b/SuppXLS/Scen_DemProj_INDHTH.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DABCA59-0214-4332-AD37-4CCCBDF85E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7303C-529D-4936-B071-A7425294BF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_MANHEAT" sheetId="6" r:id="rId1"/>
     <sheet name="IND_MANHEAT" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -102,9 +105,6 @@
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>MANELC</t>
-  </si>
-  <si>
     <t>Year2</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>~TFM_FILL</t>
+  </si>
+  <si>
+    <t>MANHEATCOAL</t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -312,6 +315,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -563,6 +567,63 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Energybalance history"/>
+      <sheetName val="Enrgy growth"/>
+      <sheetName val="TechnologydataTech"/>
+      <sheetName val="EBF TJ"/>
+      <sheetName val="EBF"/>
+      <sheetName val="RES&amp;OBJ"/>
+      <sheetName val="PRI_Sector_Fuels"/>
+      <sheetName val="DemTechs_INDF"/>
+      <sheetName val="Demands"/>
+      <sheetName val="Emi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>MANHEATOIL</v>
+          </cell>
+          <cell r="E9">
+            <v>2026.6671111111111</v>
+          </cell>
+          <cell r="M9">
+            <v>7.1715186504524242E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>MANHEATCOAL</v>
+          </cell>
+          <cell r="E11">
+            <v>2446.2078055555553</v>
+          </cell>
+          <cell r="M11">
+            <v>6.1881419217466149E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,21 +913,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -892,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>12</v>
@@ -915,10 +978,34 @@
         <v>2022</v>
       </c>
       <c r="H4" s="12">
-        <v>10281.3477669522</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
+        <f>[1]Demands!$E$9</f>
+        <v>2026.6671111111111</v>
+      </c>
+      <c r="I4" t="str">
+        <f>[1]Demands!$C$9</f>
+        <v>MANHEATOIL</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+      <c r="H5" s="11">
+        <f>[1]Demands!$E$11</f>
+        <v>2446.2078055555553</v>
+      </c>
+      <c r="I5" t="str">
+        <f>[1]Demands!$C$11</f>
+        <v>MANHEATCOAL</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +1030,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -961,11 +1048,12 @@
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="J2" t="s">
-        <v>13</v>
+      <c r="J2" t="str">
+        <f>BY_MANHEAT!I4</f>
+        <v>MANHEATOIL</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -979,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1003,16 +1091,18 @@
       </c>
       <c r="F4" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E4-2022)</f>
-        <v>20811.797787542779</v>
+        <v>2494.7129087774151</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="9">
-        <v>0.26498832137448636</v>
+        <f>[1]Demands!$M$9</f>
+        <v>7.1715186504524242E-2</v>
       </c>
       <c r="K4" s="13">
-        <v>8.8730723400078371E-2</v>
+        <f>[1]Demands!$M$11</f>
+        <v>6.1881419217466149E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1024,7 +1114,7 @@
       </c>
       <c r="F5" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E5-2022)</f>
-        <v>67412.770774944656</v>
+        <v>3527.0977708315481</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -1040,7 +1130,7 @@
       </c>
       <c r="F6" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E6-2022)</f>
-        <v>218360.84080518034</v>
+        <v>4986.7135577943345</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
@@ -1056,7 +1146,7 @@
       </c>
       <c r="F7" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E7-2022)</f>
-        <v>707305.9933455087</v>
+        <v>7050.3608698170856</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
@@ -1072,7 +1162,7 @@
       </c>
       <c r="F8" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E8-2022)</f>
-        <v>2291078.2280272678</v>
+        <v>9968.0055448450566</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1087,35 +1177,108 @@
       </c>
       <c r="F9" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E9-2022)</f>
-        <v>7421172.019358933</v>
+        <v>14093.056565009505</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="11"/>
-      <c r="G10" s="6"/>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f>E4</f>
+        <v>2025</v>
+      </c>
+      <c r="F10" s="11">
+        <f>BY_MANHEAT!$H$5*(1+$K$4)^(E10-2022)</f>
+        <v>2929.013763125804</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>BY_MANHEAT!I5</f>
+        <v>MANHEATCOAL</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E16" si="0">E5</f>
+        <v>2030</v>
+      </c>
+      <c r="F11" s="11">
+        <f>BY_MANHEAT!$H$5*(1+$K$4)^(E11-2022)</f>
+        <v>3954.5905146553259</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="11"/>
-      <c r="G12" s="6"/>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="F12" s="11">
+        <f>BY_MANHEAT!$H$5*(1+$K$4)^(E12-2022)</f>
+        <v>5339.2668670536987</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="F13" s="11">
+        <f>BY_MANHEAT!$H$5*(1+$K$4)^(E13-2022)</f>
+        <v>7208.7794101488889</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="F14" s="11">
+        <f>BY_MANHEAT!$H$5*(1+$K$4)^(E14-2022)</f>
+        <v>9732.8906529938267</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="F15" s="11">
+        <f>BY_MANHEAT!$H$5*(1+$K$4)^(E15-2022)</f>
+        <v>13140.804437679146</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SuppXLS/Scen_DemProj_INDHTH.xlsx
+++ b/SuppXLS/Scen_DemProj_INDHTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7303C-529D-4936-B071-A7425294BF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253DCFB1-EFD1-4EB7-AE3E-5DDC364C3AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_MANHEAT" sheetId="6" r:id="rId1"/>
@@ -312,10 +312,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -588,21 +588,21 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8">
         <row r="9">
           <cell r="C9" t="str">
             <v>MANHEATOIL</v>
           </cell>
           <cell r="E9">
-            <v>2026.6671111111111</v>
+            <v>2084.0960000000005</v>
           </cell>
           <cell r="M9">
             <v>7.1715186504524242E-2</v>
@@ -613,14 +613,14 @@
             <v>MANHEATCOAL</v>
           </cell>
           <cell r="E11">
-            <v>2446.2078055555553</v>
+            <v>4221.8336111111112</v>
           </cell>
           <cell r="M11">
             <v>6.1881419217466149E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -915,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -979,7 +979,7 @@
       </c>
       <c r="H4" s="12">
         <f>[1]Demands!$E$9</f>
-        <v>2026.6671111111111</v>
+        <v>2084.0960000000005</v>
       </c>
       <c r="I4" t="str">
         <f>[1]Demands!$C$9</f>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H5" s="11">
         <f>[1]Demands!$E$11</f>
-        <v>2446.2078055555553</v>
+        <v>4221.8336111111112</v>
       </c>
       <c r="I5" t="str">
         <f>[1]Demands!$C$11</f>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,10 +1038,10 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F4" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E4-2022)</f>
-        <v>2494.7129087774151</v>
+        <v>2565.404631982668</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="F5" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E5-2022)</f>
-        <v>3527.0977708315481</v>
+        <v>3627.0437880490886</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F6" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E6-2022)</f>
-        <v>4986.7135577943345</v>
+        <v>5128.0201479399066</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="F7" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E7-2022)</f>
-        <v>7050.3608698170856</v>
+        <v>7250.1442426263075</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F8" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E8-2022)</f>
-        <v>9968.0055448450566</v>
+        <v>10250.465096164708</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F9" s="11">
         <f>BY_MANHEAT!$H$4*(1+$J$4)^(E9-2022)</f>
-        <v>14093.056565009505</v>
+        <v>14492.40610551349</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F10" s="11">
         <f>BY_MANHEAT!$H$5*(1+$K$4)^(E10-2022)</f>
-        <v>2929.013763125804</v>
+        <v>5055.0933262855706</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>BY_MANHEAT!I5</f>
@@ -1205,14 +1205,14 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E16" si="0">E5</f>
+        <f t="shared" ref="E11:E15" si="0">E5</f>
         <v>2030</v>
       </c>
       <c r="F11" s="11">
         <f>BY_MANHEAT!$H$5*(1+$K$4)^(E11-2022)</f>
-        <v>3954.5905146553259</v>
-      </c>
-      <c r="G11" s="15" t="s">
+        <v>6825.1041939428851</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1226,9 +1226,9 @@
       </c>
       <c r="F12" s="11">
         <f>BY_MANHEAT!$H$5*(1+$K$4)^(E12-2022)</f>
-        <v>5339.2668670536987</v>
-      </c>
-      <c r="G12" s="15" t="s">
+        <v>9214.8738413905321</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1242,9 +1242,9 @@
       </c>
       <c r="F13" s="11">
         <f>BY_MANHEAT!$H$5*(1+$K$4)^(E13-2022)</f>
-        <v>7208.7794101488889</v>
-      </c>
-      <c r="G13" s="15" t="s">
+        <v>12441.407119923902</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1258,9 +1258,9 @@
       </c>
       <c r="F14" s="11">
         <f>BY_MANHEAT!$H$5*(1+$K$4)^(E14-2022)</f>
-        <v>9732.8906529938267</v>
-      </c>
-      <c r="G14" s="15" t="s">
+        <v>16797.691839081701</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1274,9 +1274,9 @@
       </c>
       <c r="F15" s="11">
         <f>BY_MANHEAT!$H$5*(1+$K$4)^(E15-2022)</f>
-        <v>13140.804437679146</v>
-      </c>
-      <c r="G15" s="15" t="s">
+        <v>22679.303747635724</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>17</v>
       </c>
     </row>
